--- a/2020_01_32769/test_200528/test.xlsx
+++ b/2020_01_32769/test_200528/test.xlsx
@@ -689,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +709,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,8 +997,8 @@
   <dimension ref="A1:M248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7354,7 +7357,10 @@
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H213" s="1"/>
+      <c r="H213" s="7">
+        <f>SUMXMY2(H2:H212, I2:I212)/211</f>
+        <v>1.4198143404123557E-2</v>
+      </c>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.45">
@@ -7499,7 +7505,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:I56 H213:I1048576">
+  <conditionalFormatting sqref="H1:I56 H214:I1048576 I213">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7545,7 +7551,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:I56 H213:I1048576</xm:sqref>
+          <xm:sqref>H1:I56 H214:I1048576 I213</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F5884B4-E6D1-4F98-AD9B-1D6300FDC14A}">

--- a/2020_01_32769/test_200528/test.xlsx
+++ b/2020_01_32769/test_200528/test.xlsx
@@ -624,7 +624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +666,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -689,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,6 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,14 +1011,15 @@
   <dimension ref="A1:M248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="26.58203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="8"/>
     <col min="12" max="12" width="10" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1044,6 +1059,9 @@
       <c r="I2" s="1">
         <v>0.57989253393665097</v>
       </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>7072</v>
       </c>
@@ -1074,6 +1092,9 @@
       <c r="I3" s="1">
         <v>5.9071729957805803E-2</v>
       </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>948</v>
       </c>
@@ -1104,6 +1125,9 @@
       <c r="I4" s="1">
         <v>0.18080822108040501</v>
       </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>7201</v>
       </c>
@@ -1134,6 +1158,9 @@
       <c r="I5" s="1">
         <v>2.6281208935610102E-3</v>
       </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>761</v>
       </c>
@@ -1164,6 +1191,9 @@
       <c r="I6" s="1">
         <v>0.50854139290407296</v>
       </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>8371</v>
       </c>
@@ -1194,6 +1224,9 @@
       <c r="I7" s="1">
         <v>0.47480821065726703</v>
       </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>4823</v>
       </c>
@@ -1224,6 +1257,9 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>107</v>
       </c>
@@ -1254,6 +1290,9 @@
       <c r="I9" s="1">
         <v>4.5484080571800397E-3</v>
       </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>3078</v>
       </c>
@@ -1284,6 +1323,9 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>1057</v>
       </c>
@@ -1314,6 +1356,9 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>439</v>
       </c>
@@ -1344,6 +1389,9 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>228</v>
       </c>
@@ -1374,6 +1422,9 @@
       <c r="I13" s="1">
         <v>2.35219326128417E-2</v>
       </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>1573</v>
       </c>
@@ -1404,6 +1455,9 @@
       <c r="I14" s="1">
         <v>1.2567324955116499E-2</v>
       </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>557</v>
       </c>
@@ -1434,6 +1488,9 @@
       <c r="I15" s="1">
         <v>1.6595980084823801E-2</v>
       </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>16269</v>
       </c>
@@ -1464,6 +1521,9 @@
       <c r="I16" s="1">
         <v>0.260997933274284</v>
       </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>3387</v>
       </c>
@@ -1494,6 +1554,9 @@
       <c r="I17" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>96</v>
       </c>
@@ -1524,6 +1587,9 @@
       <c r="I18" s="1">
         <v>0.27658685968819502</v>
       </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
       <c r="K18">
         <v>7184</v>
       </c>
@@ -1554,6 +1620,9 @@
       <c r="I19" s="1">
         <v>0.490783410138248</v>
       </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>23870</v>
       </c>
@@ -1584,6 +1653,9 @@
       <c r="I20" s="1">
         <v>4.54545454545454E-2</v>
       </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>88</v>
       </c>
@@ -1614,6 +1686,9 @@
       <c r="I21" s="1">
         <v>0.21496794452440099</v>
       </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>30572</v>
       </c>
@@ -1644,6 +1719,9 @@
       <c r="I22" s="1">
         <v>3.20920102953616E-2</v>
       </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>55559</v>
       </c>
@@ -1674,6 +1752,9 @@
       <c r="I23" s="1">
         <v>-0.43657817109144498</v>
       </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23">
         <v>339</v>
       </c>
@@ -1704,6 +1785,9 @@
       <c r="I24" s="1">
         <v>0.56228008444757205</v>
       </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>4263</v>
       </c>
@@ -1734,6 +1818,9 @@
       <c r="I25" s="1">
         <v>4.4270833333333197E-2</v>
       </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
       <c r="K25">
         <v>2304</v>
       </c>
@@ -1764,6 +1851,9 @@
       <c r="I26" s="1">
         <v>0.46806960934807801</v>
       </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
       <c r="K26">
         <v>255368</v>
       </c>
@@ -1794,6 +1884,9 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
       <c r="K27">
         <v>141</v>
       </c>
@@ -1824,6 +1917,9 @@
       <c r="I28" s="1">
         <v>8.8590604026845599E-2</v>
       </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
       <c r="K28">
         <v>2235</v>
       </c>
@@ -1854,6 +1950,9 @@
       <c r="I29" s="1">
         <v>4.5226130653266403E-2</v>
       </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
       <c r="K29">
         <v>796</v>
       </c>
@@ -1884,6 +1983,9 @@
       <c r="I30" s="1">
         <v>0.189024390243902</v>
       </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
       <c r="K30">
         <v>328</v>
       </c>
@@ -1914,6 +2016,9 @@
       <c r="I31" s="1">
         <v>1.63934426229508E-2</v>
       </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
       <c r="K31">
         <v>122</v>
       </c>
@@ -1944,6 +2049,9 @@
       <c r="I32" s="1">
         <v>0.38566166052706102</v>
       </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>3529</v>
       </c>
@@ -1974,6 +2082,9 @@
       <c r="I33" s="1">
         <v>2.9328146042196499E-2</v>
       </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
       <c r="K33">
         <v>6683</v>
       </c>
@@ -2004,6 +2115,9 @@
       <c r="I34" s="1">
         <v>3.5188216039279699E-2</v>
       </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>2444</v>
       </c>
@@ -2034,6 +2148,9 @@
       <c r="I35" s="1">
         <v>6.8965517241379396E-3</v>
       </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>290</v>
       </c>
@@ -2064,6 +2181,9 @@
       <c r="I36" s="1">
         <v>8.3333333333333003E-3</v>
       </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
       <c r="K36">
         <v>120</v>
       </c>
@@ -2094,6 +2214,9 @@
       <c r="I37" s="1">
         <v>0</v>
       </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
       <c r="K37">
         <v>260</v>
       </c>
@@ -2124,6 +2247,9 @@
       <c r="I38" s="1">
         <v>7.6701821668263498E-3</v>
       </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
       <c r="K38">
         <v>1043</v>
       </c>
@@ -2154,6 +2280,9 @@
       <c r="I39" s="1">
         <v>0.124186774273243</v>
       </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
       <c r="K39">
         <v>24286</v>
       </c>
@@ -2184,6 +2313,9 @@
       <c r="I40" s="1">
         <v>9.9848748739572696E-2</v>
       </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
       <c r="K40">
         <v>43636</v>
       </c>
@@ -2214,6 +2346,9 @@
       <c r="I41" s="1">
         <v>7.0945945945945998E-2</v>
       </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
       <c r="K41">
         <v>592</v>
       </c>
@@ -2244,6 +2379,9 @@
       <c r="I42" s="1">
         <v>0.99388379204892896</v>
       </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>327</v>
       </c>
@@ -2274,6 +2412,9 @@
       <c r="I43" s="1">
         <v>0.32369942196531798</v>
       </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
       <c r="K43">
         <v>519</v>
       </c>
@@ -2304,6 +2445,9 @@
       <c r="I44" s="1">
         <v>0.60656983434290801</v>
       </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
       <c r="K44">
         <v>46059</v>
       </c>
@@ -2334,6 +2478,9 @@
       <c r="I45" s="1">
         <v>0</v>
       </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
       <c r="K45">
         <v>991</v>
       </c>
@@ -2364,6 +2511,9 @@
       <c r="I46" s="1">
         <v>0</v>
       </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>593</v>
       </c>
@@ -2394,6 +2544,9 @@
       <c r="I47" s="1">
         <v>0</v>
       </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
       <c r="K47">
         <v>579</v>
       </c>
@@ -2424,6 +2577,9 @@
       <c r="I48" s="1">
         <v>2.8089887640450001E-3</v>
       </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
       <c r="K48">
         <v>356</v>
       </c>
@@ -2454,6 +2610,9 @@
       <c r="I49" s="1">
         <v>0</v>
       </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
       <c r="K49">
         <v>139</v>
       </c>
@@ -2484,6 +2643,9 @@
       <c r="I50" s="1">
         <v>1.2578616352201201E-3</v>
       </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
       <c r="K50">
         <v>1590</v>
       </c>
@@ -2514,6 +2676,9 @@
       <c r="I51" s="1">
         <v>0</v>
       </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>254</v>
       </c>
@@ -2544,6 +2709,9 @@
       <c r="I52" s="1">
         <v>0</v>
       </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
       <c r="K52">
         <v>147</v>
       </c>
@@ -2574,6 +2742,9 @@
       <c r="I53" s="1">
         <v>0</v>
       </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
       <c r="K53">
         <v>169</v>
       </c>
@@ -2604,6 +2775,9 @@
       <c r="I54" s="1">
         <v>0</v>
       </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
       <c r="K54">
         <v>328</v>
       </c>
@@ -2634,6 +2808,9 @@
       <c r="I55" s="1">
         <v>0</v>
       </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
       <c r="K55">
         <v>945</v>
       </c>
@@ -2664,6 +2841,9 @@
       <c r="I56" s="1">
         <v>0</v>
       </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>1276</v>
       </c>
@@ -2694,6 +2874,9 @@
       <c r="I57" s="1">
         <v>9.4786729857820797E-3</v>
       </c>
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
       <c r="K57">
         <v>1055</v>
       </c>
@@ -2724,6 +2907,9 @@
       <c r="I58" s="1">
         <v>0</v>
       </c>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
       <c r="K58">
         <v>68135</v>
       </c>
@@ -2754,6 +2940,9 @@
       <c r="I59" s="1">
         <v>0</v>
       </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
       <c r="K59">
         <v>1019</v>
       </c>
@@ -2784,6 +2973,9 @@
       <c r="I60" s="1">
         <v>7.4074074074074098E-2</v>
       </c>
+      <c r="J60" s="8">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>216</v>
       </c>
@@ -2814,6 +3006,9 @@
       <c r="I61" s="1">
         <v>0</v>
       </c>
+      <c r="J61" s="8">
+        <v>0</v>
+      </c>
       <c r="K61">
         <v>653</v>
       </c>
@@ -2844,6 +3039,9 @@
       <c r="I62" s="1">
         <v>0</v>
       </c>
+      <c r="J62" s="8">
+        <v>0</v>
+      </c>
       <c r="K62">
         <v>937</v>
       </c>
@@ -2874,6 +3072,9 @@
       <c r="I63" s="1">
         <v>2.64900662251654E-2</v>
       </c>
+      <c r="J63" s="8">
+        <v>0</v>
+      </c>
       <c r="K63">
         <v>151</v>
       </c>
@@ -2904,6 +3105,9 @@
       <c r="I64" s="1">
         <v>0</v>
       </c>
+      <c r="J64" s="8">
+        <v>0</v>
+      </c>
       <c r="K64">
         <v>149</v>
       </c>
@@ -2934,6 +3138,9 @@
       <c r="I65" s="1">
         <v>0</v>
       </c>
+      <c r="J65" s="8">
+        <v>0</v>
+      </c>
       <c r="K65">
         <v>75</v>
       </c>
@@ -2964,6 +3171,9 @@
       <c r="I66" s="1">
         <v>0</v>
       </c>
+      <c r="J66" s="8">
+        <v>0</v>
+      </c>
       <c r="K66">
         <v>308</v>
       </c>
@@ -2994,6 +3204,9 @@
       <c r="I67" s="1">
         <v>0</v>
       </c>
+      <c r="J67" s="8">
+        <v>0</v>
+      </c>
       <c r="K67">
         <v>788</v>
       </c>
@@ -3024,6 +3237,9 @@
       <c r="I68" s="1">
         <v>4.5045045045044498E-3</v>
       </c>
+      <c r="J68" s="8">
+        <v>0</v>
+      </c>
       <c r="K68">
         <v>666</v>
       </c>
@@ -3054,6 +3270,9 @@
       <c r="I69" s="1">
         <v>0</v>
       </c>
+      <c r="J69" s="8">
+        <v>0</v>
+      </c>
       <c r="K69">
         <v>198</v>
       </c>
@@ -3084,6 +3303,9 @@
       <c r="I70" s="1">
         <v>5.3475935828877202E-3</v>
       </c>
+      <c r="J70" s="8">
+        <v>0</v>
+      </c>
       <c r="K70">
         <v>561</v>
       </c>
@@ -3114,6 +3336,9 @@
       <c r="I71" s="1">
         <v>0</v>
       </c>
+      <c r="J71" s="8">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>192</v>
       </c>
@@ -3144,6 +3369,9 @@
       <c r="I72" s="1">
         <v>0</v>
       </c>
+      <c r="J72" s="8">
+        <v>0</v>
+      </c>
       <c r="K72">
         <v>76</v>
       </c>
@@ -3174,6 +3402,9 @@
       <c r="I73" s="1">
         <v>0</v>
       </c>
+      <c r="J73" s="8">
+        <v>0</v>
+      </c>
       <c r="K73">
         <v>185</v>
       </c>
@@ -3204,6 +3435,9 @@
       <c r="I74" s="1">
         <v>0</v>
       </c>
+      <c r="J74" s="8">
+        <v>0</v>
+      </c>
       <c r="K74">
         <v>1268</v>
       </c>
@@ -3234,6 +3468,9 @@
       <c r="I75" s="1">
         <v>0.34894139306535699</v>
       </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
       <c r="K75">
         <v>16295</v>
       </c>
@@ -3264,6 +3501,9 @@
       <c r="I76" s="1">
         <v>0.18203883495145601</v>
       </c>
+      <c r="J76" s="8">
+        <v>0</v>
+      </c>
       <c r="K76">
         <v>412</v>
       </c>
@@ -3294,6 +3534,9 @@
       <c r="I77" s="1">
         <v>0.493498049414824</v>
       </c>
+      <c r="J77" s="8">
+        <v>0</v>
+      </c>
       <c r="K77">
         <v>1538</v>
       </c>
@@ -3324,6 +3567,9 @@
       <c r="I78" s="1">
         <v>9.8152424942263103E-2</v>
       </c>
+      <c r="J78" s="8">
+        <v>0</v>
+      </c>
       <c r="K78">
         <v>866</v>
       </c>
@@ -3354,6 +3600,9 @@
       <c r="I79" s="1">
         <v>0.143463898065125</v>
       </c>
+      <c r="J79" s="8">
+        <v>0</v>
+      </c>
       <c r="K79">
         <v>2119</v>
       </c>
@@ -3384,6 +3633,9 @@
       <c r="I80" s="1">
         <v>7.1813285457809004E-3</v>
       </c>
+      <c r="J80" s="8">
+        <v>0</v>
+      </c>
       <c r="K80">
         <v>2228</v>
       </c>
@@ -3414,6 +3666,9 @@
       <c r="I81" s="1">
         <v>0</v>
       </c>
+      <c r="J81" s="8">
+        <v>0</v>
+      </c>
       <c r="K81">
         <v>712</v>
       </c>
@@ -3444,6 +3699,9 @@
       <c r="I82" s="1">
         <v>3.5087719298245702E-2</v>
       </c>
+      <c r="J82" s="8">
+        <v>0</v>
+      </c>
       <c r="K82">
         <v>1881</v>
       </c>
@@ -3474,6 +3732,9 @@
       <c r="I83" s="1">
         <v>2.1810250817884302E-2</v>
       </c>
+      <c r="J83" s="8">
+        <v>0</v>
+      </c>
       <c r="K83">
         <v>917</v>
       </c>
@@ -3504,6 +3765,9 @@
       <c r="I84" s="1">
         <v>4.8450966689960399E-2</v>
       </c>
+      <c r="J84" s="8">
+        <v>0</v>
+      </c>
       <c r="K84">
         <v>8586</v>
       </c>
@@ -3534,6 +3798,9 @@
       <c r="I85" s="1">
         <v>0</v>
       </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
       <c r="K85">
         <v>187</v>
       </c>
@@ -3564,6 +3831,9 @@
       <c r="I86" s="1">
         <v>3.8202042304886899E-2</v>
       </c>
+      <c r="J86" s="8">
+        <v>0</v>
+      </c>
       <c r="K86">
         <v>10968</v>
       </c>
@@ -3594,6 +3864,9 @@
       <c r="I87" s="1">
         <v>0.625823451910408</v>
       </c>
+      <c r="J87" s="8">
+        <v>0</v>
+      </c>
       <c r="K87">
         <v>1518</v>
       </c>
@@ -3624,6 +3897,9 @@
       <c r="I88" s="1">
         <v>0.184518664047151</v>
       </c>
+      <c r="J88" s="8">
+        <v>0</v>
+      </c>
       <c r="K88">
         <v>12725</v>
       </c>
@@ -3654,6 +3930,9 @@
       <c r="I89" s="1">
         <v>0.112351855160502</v>
       </c>
+      <c r="J89" s="8">
+        <v>0</v>
+      </c>
       <c r="K89">
         <v>33582</v>
       </c>
@@ -3684,6 +3963,9 @@
       <c r="I90" s="1">
         <v>0.40763083672829797</v>
       </c>
+      <c r="J90" s="8">
+        <v>0</v>
+      </c>
       <c r="K90">
         <v>12764</v>
       </c>
@@ -3714,6 +3996,9 @@
       <c r="I91" s="1">
         <v>0.403397027600849</v>
       </c>
+      <c r="J91" s="8">
+        <v>0</v>
+      </c>
       <c r="K91">
         <v>1413</v>
       </c>
@@ -3744,6 +4029,9 @@
       <c r="I92" s="1">
         <v>0.45062586926286502</v>
       </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
       <c r="K92">
         <v>719</v>
       </c>
@@ -3774,6 +4062,9 @@
       <c r="I93" s="1">
         <v>2.2421524663677101E-2</v>
       </c>
+      <c r="J93" s="8">
+        <v>0</v>
+      </c>
       <c r="K93">
         <v>1784</v>
       </c>
@@ -3804,6 +4095,9 @@
       <c r="I94" s="1">
         <v>0.24878048780487799</v>
       </c>
+      <c r="J94" s="8">
+        <v>0</v>
+      </c>
       <c r="K94">
         <v>205</v>
       </c>
@@ -3834,6 +4128,9 @@
       <c r="I95" s="1">
         <v>0.86079545454545403</v>
       </c>
+      <c r="J95" s="8">
+        <v>0</v>
+      </c>
       <c r="K95">
         <v>352</v>
       </c>
@@ -3864,6 +4161,9 @@
       <c r="I96" s="1">
         <v>3.4326018808777503E-2</v>
       </c>
+      <c r="J96" s="8">
+        <v>0</v>
+      </c>
       <c r="K96">
         <v>6380</v>
       </c>
@@ -3894,6 +4194,9 @@
       <c r="I97" s="1">
         <v>0.68095238095238098</v>
       </c>
+      <c r="J97" s="8">
+        <v>0</v>
+      </c>
       <c r="K97">
         <v>210</v>
       </c>
@@ -3924,6 +4227,9 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
+      <c r="J98" s="8">
+        <v>0</v>
+      </c>
       <c r="K98">
         <v>60</v>
       </c>
@@ -3954,6 +4260,9 @@
       <c r="I99" s="1">
         <v>3.8709677419354903E-2</v>
       </c>
+      <c r="J99" s="8">
+        <v>0</v>
+      </c>
       <c r="K99">
         <v>155</v>
       </c>
@@ -3984,6 +4293,9 @@
       <c r="I100" s="1">
         <v>0.17445255474452501</v>
       </c>
+      <c r="J100" s="8">
+        <v>0</v>
+      </c>
       <c r="K100">
         <v>1370</v>
       </c>
@@ -4014,6 +4326,9 @@
       <c r="I101" s="1">
         <v>2.2421524663677101E-2</v>
       </c>
+      <c r="J101" s="8">
+        <v>0</v>
+      </c>
       <c r="K101">
         <v>446</v>
       </c>
@@ -4044,6 +4359,9 @@
       <c r="I102" s="1">
         <v>2.6041666666666699E-2</v>
       </c>
+      <c r="J102" s="8">
+        <v>0</v>
+      </c>
       <c r="K102">
         <v>192</v>
       </c>
@@ -4074,6 +4392,9 @@
       <c r="I103" s="1">
         <v>1.47110174932696E-2</v>
       </c>
+      <c r="J103" s="8">
+        <v>0</v>
+      </c>
       <c r="K103">
         <v>177554</v>
       </c>
@@ -4104,6 +4425,9 @@
       <c r="I104" s="1">
         <v>0.49092178770949702</v>
       </c>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
       <c r="K104">
         <v>1432</v>
       </c>
@@ -4134,6 +4458,9 @@
       <c r="I105" s="1">
         <v>4.2796005706133997E-2</v>
       </c>
+      <c r="J105" s="8">
+        <v>0</v>
+      </c>
       <c r="K105">
         <v>701</v>
       </c>
@@ -4164,6 +4491,9 @@
       <c r="I106" s="1">
         <v>2.29338831272549E-2</v>
       </c>
+      <c r="J106" s="8">
+        <v>0</v>
+      </c>
       <c r="K106">
         <v>176551</v>
       </c>
@@ -4194,6 +4524,9 @@
       <c r="I107" s="1">
         <v>0.187096774193548</v>
       </c>
+      <c r="J107" s="8">
+        <v>0</v>
+      </c>
       <c r="K107">
         <v>5735</v>
       </c>
@@ -4224,6 +4557,9 @@
       <c r="I108" s="1">
         <v>1.62200282087447E-2</v>
       </c>
+      <c r="J108" s="8">
+        <v>0</v>
+      </c>
       <c r="K108">
         <v>2836</v>
       </c>
@@ -4254,6 +4590,9 @@
       <c r="I109" s="1">
         <v>0.96652719665271902</v>
       </c>
+      <c r="J109" s="8">
+        <v>0</v>
+      </c>
       <c r="K109">
         <v>1912</v>
       </c>
@@ -4284,6 +4623,9 @@
       <c r="I110" s="1">
         <v>0.17131616595135901</v>
       </c>
+      <c r="J110" s="8">
+        <v>0</v>
+      </c>
       <c r="K110">
         <v>2796</v>
       </c>
@@ -4314,6 +4656,9 @@
       <c r="I111" s="1">
         <v>0.104838709677419</v>
       </c>
+      <c r="J111" s="8">
+        <v>0</v>
+      </c>
       <c r="K111">
         <v>124</v>
       </c>
@@ -4344,6 +4689,9 @@
       <c r="I112" s="1">
         <v>0.79737335834896805</v>
       </c>
+      <c r="J112" s="8">
+        <v>0</v>
+      </c>
       <c r="K112">
         <v>533</v>
       </c>
@@ -4374,6 +4722,9 @@
       <c r="I113" s="1">
         <v>0.49714081486776202</v>
       </c>
+      <c r="J113" s="8">
+        <v>0</v>
+      </c>
       <c r="K113">
         <v>2798</v>
       </c>
@@ -4404,6 +4755,9 @@
       <c r="I114" s="1">
         <v>6.2517680339462395E-2</v>
       </c>
+      <c r="J114" s="8">
+        <v>0</v>
+      </c>
       <c r="K114">
         <v>3535</v>
       </c>
@@ -4434,6 +4788,9 @@
       <c r="I115" s="1">
         <v>1.1098779134295299E-3</v>
       </c>
+      <c r="J115" s="8">
+        <v>0</v>
+      </c>
       <c r="K115">
         <v>1802</v>
       </c>
@@ -4464,6 +4821,9 @@
       <c r="I116" s="1">
         <v>0.444761183318714</v>
       </c>
+      <c r="J116" s="8">
+        <v>0</v>
+      </c>
       <c r="K116">
         <v>100328</v>
       </c>
@@ -4494,6 +4854,9 @@
       <c r="I117" s="1">
         <v>0.26318711826762903</v>
       </c>
+      <c r="J117" s="8">
+        <v>0</v>
+      </c>
       <c r="K117">
         <v>18010</v>
       </c>
@@ -4524,6 +4887,9 @@
       <c r="I118" s="1">
         <v>0.124350978023054</v>
       </c>
+      <c r="J118" s="8">
+        <v>0</v>
+      </c>
       <c r="K118">
         <v>122492</v>
       </c>
@@ -4554,6 +4920,9 @@
       <c r="I119" s="1">
         <v>0.30332020258863202</v>
       </c>
+      <c r="J119" s="8">
+        <v>0</v>
+      </c>
       <c r="K119">
         <v>3554</v>
       </c>
@@ -4584,6 +4953,9 @@
       <c r="I120" s="1">
         <v>2.0578512396694101E-2</v>
       </c>
+      <c r="J120" s="8">
+        <v>0</v>
+      </c>
       <c r="K120">
         <v>24200</v>
       </c>
@@ -4614,6 +4986,9 @@
       <c r="I121" s="1">
         <v>5.4677642251996696E-3</v>
       </c>
+      <c r="J121" s="8">
+        <v>0</v>
+      </c>
       <c r="K121">
         <v>16643</v>
       </c>
@@ -4644,6 +5019,9 @@
       <c r="I122" s="1">
         <v>1.8912194646857301E-2</v>
       </c>
+      <c r="J122" s="8">
+        <v>0</v>
+      </c>
       <c r="K122">
         <v>225886</v>
       </c>
@@ -4674,6 +5052,9 @@
       <c r="I123" s="1">
         <v>6.9230769230769207E-2</v>
       </c>
+      <c r="J123" s="8">
+        <v>0</v>
+      </c>
       <c r="K123">
         <v>520</v>
       </c>
@@ -4704,6 +5085,9 @@
       <c r="I124" s="1">
         <v>1.6927322907083601E-2</v>
       </c>
+      <c r="J124" s="8">
+        <v>0</v>
+      </c>
       <c r="K124">
         <v>16305</v>
       </c>
@@ -4734,6 +5118,9 @@
       <c r="I125" s="1">
         <v>0.13036565977742401</v>
       </c>
+      <c r="J125" s="8">
+        <v>0</v>
+      </c>
       <c r="K125">
         <v>629</v>
       </c>
@@ -4764,6 +5151,9 @@
       <c r="I126" s="1">
         <v>0.32854391941934502</v>
       </c>
+      <c r="J126" s="8">
+        <v>0</v>
+      </c>
       <c r="K126">
         <v>6751</v>
       </c>
@@ -4794,6 +5184,9 @@
       <c r="I127" s="1">
         <v>0.410087719298245</v>
       </c>
+      <c r="J127" s="8">
+        <v>0</v>
+      </c>
       <c r="K127">
         <v>912</v>
       </c>
@@ -4824,6 +5217,9 @@
       <c r="I128" s="1">
         <v>1.3269543238851799E-2</v>
       </c>
+      <c r="J128" s="8">
+        <v>0</v>
+      </c>
       <c r="K128">
         <v>11078</v>
       </c>
@@ -4854,6 +5250,9 @@
       <c r="I129" s="1">
         <v>0.399974507679561</v>
       </c>
+      <c r="J129" s="8">
+        <v>0</v>
+      </c>
       <c r="K129">
         <v>15691</v>
       </c>
@@ -4884,6 +5283,9 @@
       <c r="I130" s="1">
         <v>0.17845394736842099</v>
       </c>
+      <c r="J130" s="8">
+        <v>0</v>
+      </c>
       <c r="K130">
         <v>1216</v>
       </c>
@@ -4914,6 +5316,9 @@
       <c r="I131" s="1">
         <v>3.9643211100099003E-2</v>
       </c>
+      <c r="J131" s="8">
+        <v>0</v>
+      </c>
       <c r="K131">
         <v>1009</v>
       </c>
@@ -4944,6 +5349,9 @@
       <c r="I132" s="1">
         <v>0.20193340494092299</v>
       </c>
+      <c r="J132" s="8">
+        <v>0</v>
+      </c>
       <c r="K132">
         <v>931</v>
       </c>
@@ -4974,6 +5382,9 @@
       <c r="I133" s="1">
         <v>0.157205240174672</v>
       </c>
+      <c r="J133" s="8">
+        <v>0</v>
+      </c>
       <c r="K133">
         <v>229</v>
       </c>
@@ -5004,6 +5415,9 @@
       <c r="I134" s="1">
         <v>0</v>
       </c>
+      <c r="J134" s="8">
+        <v>0</v>
+      </c>
       <c r="K134">
         <v>82</v>
       </c>
@@ -5034,6 +5448,9 @@
       <c r="I135" s="1">
         <v>5.6884292178409797E-2</v>
       </c>
+      <c r="J135" s="8">
+        <v>0</v>
+      </c>
       <c r="K135">
         <v>1547</v>
       </c>
@@ -5064,6 +5481,9 @@
       <c r="I136" s="1">
         <v>1.16544210793008E-2</v>
       </c>
+      <c r="J136" s="8">
+        <v>0</v>
+      </c>
       <c r="K136">
         <v>3947</v>
       </c>
@@ -5094,6 +5514,9 @@
       <c r="I137" s="1">
         <v>0.68322981366459601</v>
       </c>
+      <c r="J137" s="8">
+        <v>0</v>
+      </c>
       <c r="K137">
         <v>322</v>
       </c>
@@ -5124,6 +5547,9 @@
       <c r="I138" s="1">
         <v>6.8578014695288694E-2</v>
       </c>
+      <c r="J138" s="8">
+        <v>0</v>
+      </c>
       <c r="K138">
         <v>6941</v>
       </c>
@@ -5154,6 +5580,9 @@
       <c r="I139" s="1">
         <v>0.26130198915009001</v>
       </c>
+      <c r="J139" s="8">
+        <v>0</v>
+      </c>
       <c r="K139">
         <v>1106</v>
       </c>
@@ -5184,6 +5613,9 @@
       <c r="I140" s="1">
         <v>9.4982078853046603E-2</v>
       </c>
+      <c r="J140" s="8">
+        <v>0</v>
+      </c>
       <c r="K140">
         <v>558</v>
       </c>
@@ -5214,6 +5646,9 @@
       <c r="I141" s="1">
         <v>6.0240963855422401E-3</v>
       </c>
+      <c r="J141" s="8">
+        <v>0</v>
+      </c>
       <c r="K141">
         <v>332</v>
       </c>
@@ -5244,6 +5679,9 @@
       <c r="I142" s="1">
         <v>0.37712315767048199</v>
       </c>
+      <c r="J142" s="8">
+        <v>0</v>
+      </c>
       <c r="K142">
         <v>51633</v>
       </c>
@@ -5274,6 +5712,9 @@
       <c r="I143" s="1">
         <v>0.16438579341805101</v>
       </c>
+      <c r="J143" s="8">
+        <v>0</v>
+      </c>
       <c r="K143">
         <v>6138</v>
       </c>
@@ -5304,6 +5745,9 @@
       <c r="I144" s="1">
         <v>1.03092783505154E-2</v>
       </c>
+      <c r="J144" s="8">
+        <v>0</v>
+      </c>
       <c r="K144">
         <v>97</v>
       </c>
@@ -5334,6 +5778,9 @@
       <c r="I145" s="1">
         <v>0</v>
       </c>
+      <c r="J145" s="8">
+        <v>0</v>
+      </c>
       <c r="K145">
         <v>324</v>
       </c>
@@ -5364,6 +5811,9 @@
       <c r="I146" s="1">
         <v>8.3429228998849095E-2</v>
       </c>
+      <c r="J146" s="8">
+        <v>0</v>
+      </c>
       <c r="K146">
         <v>6952</v>
       </c>
@@ -5394,6 +5844,9 @@
       <c r="I147" s="1">
         <v>0.81866666666666599</v>
       </c>
+      <c r="J147" s="8">
+        <v>0</v>
+      </c>
       <c r="K147">
         <v>375</v>
       </c>
@@ -5424,6 +5877,9 @@
       <c r="I148" s="1">
         <v>0</v>
       </c>
+      <c r="J148" s="8">
+        <v>0</v>
+      </c>
       <c r="K148">
         <v>101</v>
       </c>
@@ -5454,6 +5910,9 @@
       <c r="I149" s="1">
         <v>0</v>
       </c>
+      <c r="J149" s="8">
+        <v>0</v>
+      </c>
       <c r="K149">
         <v>77</v>
       </c>
@@ -5484,6 +5943,9 @@
       <c r="I150" s="1">
         <v>2.9541695928954899E-2</v>
       </c>
+      <c r="J150" s="8">
+        <v>0</v>
+      </c>
       <c r="K150">
         <v>44141</v>
       </c>
@@ -5514,6 +5976,9 @@
       <c r="I151" s="1">
         <v>3.3355570380253401E-3</v>
       </c>
+      <c r="J151" s="8">
+        <v>0</v>
+      </c>
       <c r="K151">
         <v>1499</v>
       </c>
@@ -5544,6 +6009,9 @@
       <c r="I152" s="1">
         <v>4.6204620462046098E-2</v>
       </c>
+      <c r="J152" s="8">
+        <v>0</v>
+      </c>
       <c r="K152">
         <v>909</v>
       </c>
@@ -5574,6 +6042,9 @@
       <c r="I153" s="1">
         <v>0.30655870445344102</v>
       </c>
+      <c r="J153" s="8">
+        <v>0</v>
+      </c>
       <c r="K153">
         <v>6175</v>
       </c>
@@ -5604,6 +6075,9 @@
       <c r="I154" s="1">
         <v>0.100165107319757</v>
       </c>
+      <c r="J154" s="8">
+        <v>0</v>
+      </c>
       <c r="K154">
         <v>1817</v>
       </c>
@@ -5634,6 +6108,9 @@
       <c r="I155" s="1">
         <v>1.2958701707642E-2</v>
       </c>
+      <c r="J155" s="8">
+        <v>0</v>
+      </c>
       <c r="K155">
         <v>8257</v>
       </c>
@@ -5664,6 +6141,9 @@
       <c r="I156" s="1">
         <v>0.44450641383156703</v>
       </c>
+      <c r="J156" s="8">
+        <v>0</v>
+      </c>
       <c r="K156">
         <v>5379</v>
       </c>
@@ -5694,6 +6174,9 @@
       <c r="I157" s="1">
         <v>0.33766172106824899</v>
       </c>
+      <c r="J157" s="8">
+        <v>0</v>
+      </c>
       <c r="K157">
         <v>42125</v>
       </c>
@@ -5724,6 +6207,9 @@
       <c r="I158" s="1">
         <v>0.149804647337034</v>
       </c>
+      <c r="J158" s="8">
+        <v>0</v>
+      </c>
       <c r="K158">
         <v>9726</v>
       </c>
@@ -5754,6 +6240,9 @@
       <c r="I159" s="1">
         <v>9.7715736040609097E-2</v>
       </c>
+      <c r="J159" s="8">
+        <v>0</v>
+      </c>
       <c r="K159">
         <v>788</v>
       </c>
@@ -5784,6 +6273,9 @@
       <c r="I160" s="1">
         <v>0.30596315296050802</v>
       </c>
+      <c r="J160" s="8">
+        <v>0</v>
+      </c>
       <c r="K160">
         <v>94933</v>
       </c>
@@ -5814,6 +6306,9 @@
       <c r="I161" s="1">
         <v>0.125884573046076</v>
       </c>
+      <c r="J161" s="8">
+        <v>0</v>
+      </c>
       <c r="K161">
         <v>12718</v>
       </c>
@@ -5844,6 +6339,9 @@
       <c r="I162" s="1">
         <v>0.14540640720148201</v>
       </c>
+      <c r="J162" s="8">
+        <v>0</v>
+      </c>
       <c r="K162">
         <v>18885</v>
       </c>
@@ -5874,6 +6372,9 @@
       <c r="I163" s="1">
         <v>5.4058680543667997E-2</v>
       </c>
+      <c r="J163" s="8">
+        <v>0</v>
+      </c>
       <c r="K163">
         <v>29209</v>
       </c>
@@ -5904,6 +6405,9 @@
       <c r="I164" s="1">
         <v>0.33842621213459301</v>
       </c>
+      <c r="J164" s="8">
+        <v>0</v>
+      </c>
       <c r="K164">
         <v>33969</v>
       </c>
@@ -5934,6 +6438,9 @@
       <c r="I165" s="1">
         <v>7.3197933787273906E-2</v>
       </c>
+      <c r="J165" s="8">
+        <v>0</v>
+      </c>
       <c r="K165">
         <v>17036</v>
       </c>
@@ -5964,6 +6471,9 @@
       <c r="I166" s="1">
         <v>0.21587117016079599</v>
       </c>
+      <c r="J166" s="8">
+        <v>0</v>
+      </c>
       <c r="K166">
         <v>290678</v>
       </c>
@@ -5994,6 +6504,9 @@
       <c r="I167" s="1">
         <v>0.13131313131313099</v>
       </c>
+      <c r="J167" s="8">
+        <v>0</v>
+      </c>
       <c r="K167">
         <v>297</v>
       </c>
@@ -6024,6 +6537,9 @@
       <c r="I168" s="1">
         <v>1.8348623853210899E-2</v>
       </c>
+      <c r="J168" s="8">
+        <v>0</v>
+      </c>
       <c r="K168">
         <v>654</v>
       </c>
@@ -6054,6 +6570,9 @@
       <c r="I169" s="1">
         <v>0.30429854390095001</v>
       </c>
+      <c r="J169" s="8">
+        <v>0</v>
+      </c>
       <c r="K169">
         <v>57345</v>
       </c>
@@ -6084,6 +6603,9 @@
       <c r="I170" s="1">
         <v>0.23034591194968501</v>
       </c>
+      <c r="J170" s="8">
+        <v>0</v>
+      </c>
       <c r="K170">
         <v>2544</v>
       </c>
@@ -6114,6 +6636,9 @@
       <c r="I171" s="1">
         <v>4.6172539489671899E-2</v>
       </c>
+      <c r="J171" s="8">
+        <v>0</v>
+      </c>
       <c r="K171">
         <v>10699</v>
       </c>
@@ -6144,6 +6669,9 @@
       <c r="I172" s="1">
         <v>0.12761528419715601</v>
       </c>
+      <c r="J172" s="8">
+        <v>0</v>
+      </c>
       <c r="K172">
         <v>28343</v>
       </c>
@@ -6174,6 +6702,9 @@
       <c r="I173" s="1">
         <v>1.07023411371236E-2</v>
       </c>
+      <c r="J173" s="8">
+        <v>0</v>
+      </c>
       <c r="K173">
         <v>1495</v>
       </c>
@@ -6204,6 +6735,9 @@
       <c r="I174" s="1">
         <v>2.0463847203273599E-3</v>
       </c>
+      <c r="J174" s="8">
+        <v>0</v>
+      </c>
       <c r="K174">
         <v>1466</v>
       </c>
@@ -6234,6 +6768,9 @@
       <c r="I175" s="1">
         <v>0.160824742268041</v>
       </c>
+      <c r="J175" s="8">
+        <v>0</v>
+      </c>
       <c r="K175">
         <v>1455</v>
       </c>
@@ -6264,6 +6801,9 @@
       <c r="I176" s="1">
         <v>0.437047404612669</v>
       </c>
+      <c r="J176" s="8">
+        <v>0</v>
+      </c>
       <c r="K176">
         <v>16433</v>
       </c>
@@ -6294,6 +6834,9 @@
       <c r="I177" s="1">
         <v>1.63812681882162E-2</v>
       </c>
+      <c r="J177" s="8">
+        <v>0</v>
+      </c>
       <c r="K177">
         <v>231606</v>
       </c>
@@ -6324,6 +6867,9 @@
       <c r="I178" s="1">
         <v>0.19153225806451599</v>
       </c>
+      <c r="J178" s="8">
+        <v>0</v>
+      </c>
       <c r="K178">
         <v>992</v>
       </c>
@@ -6354,6 +6900,9 @@
       <c r="I179" s="1">
         <v>0.53454264762639903</v>
       </c>
+      <c r="J179" s="8">
+        <v>0</v>
+      </c>
       <c r="K179">
         <v>2591</v>
       </c>
@@ -6384,6 +6933,9 @@
       <c r="I180" s="1">
         <v>0.114099483161602</v>
       </c>
+      <c r="J180" s="8">
+        <v>0</v>
+      </c>
       <c r="K180">
         <v>30377</v>
       </c>
@@ -6414,6 +6966,9 @@
       <c r="I181" s="1">
         <v>4.8697584730528201E-3</v>
       </c>
+      <c r="J181" s="8">
+        <v>0</v>
+      </c>
       <c r="K181">
         <v>30597</v>
       </c>
@@ -6444,6 +6999,9 @@
       <c r="I182" s="1">
         <v>2.2727272727272002E-3</v>
       </c>
+      <c r="J182" s="8">
+        <v>0</v>
+      </c>
       <c r="K182">
         <v>440</v>
       </c>
@@ -6474,6 +7032,9 @@
       <c r="I183" s="1">
         <v>0</v>
       </c>
+      <c r="J183" s="8">
+        <v>0</v>
+      </c>
       <c r="K183">
         <v>509</v>
       </c>
@@ -6504,6 +7065,9 @@
       <c r="I184" s="1">
         <v>3.6291652919828699E-3</v>
       </c>
+      <c r="J184" s="8">
+        <v>0</v>
+      </c>
       <c r="K184">
         <v>3031</v>
       </c>
@@ -6534,6 +7098,9 @@
       <c r="I185" s="1">
         <v>0.16969696969696901</v>
       </c>
+      <c r="J185" s="8">
+        <v>0</v>
+      </c>
       <c r="K185">
         <v>330</v>
       </c>
@@ -6564,6 +7131,9 @@
       <c r="I186" s="1">
         <v>0</v>
       </c>
+      <c r="J186" s="8">
+        <v>0</v>
+      </c>
       <c r="K186">
         <v>116</v>
       </c>
@@ -6594,6 +7164,9 @@
       <c r="I187" s="1">
         <v>7.6701821668263498E-3</v>
       </c>
+      <c r="J187" s="8">
+        <v>0</v>
+      </c>
       <c r="K187">
         <v>1043</v>
       </c>
@@ -6624,6 +7197,9 @@
       <c r="I188" s="1">
         <v>4.7950435943237599E-2</v>
       </c>
+      <c r="J188" s="8">
+        <v>0</v>
+      </c>
       <c r="K188">
         <v>150593</v>
       </c>
@@ -6654,6 +7230,9 @@
       <c r="I189" s="1">
         <v>-0.104838709677419</v>
       </c>
+      <c r="J189" s="8">
+        <v>0</v>
+      </c>
       <c r="K189">
         <v>248</v>
       </c>
@@ -6684,6 +7263,9 @@
       <c r="I190" s="1">
         <v>0.14122260421143101</v>
       </c>
+      <c r="J190" s="8">
+        <v>0</v>
+      </c>
       <c r="K190">
         <v>18616</v>
       </c>
@@ -6714,6 +7296,9 @@
       <c r="I191" s="1">
         <v>0.25287308805291397</v>
       </c>
+      <c r="J191" s="8">
+        <v>0</v>
+      </c>
       <c r="K191">
         <v>24190</v>
       </c>
@@ -6744,6 +7329,9 @@
       <c r="I192" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="J192" s="8">
+        <v>0</v>
+      </c>
       <c r="K192">
         <v>125</v>
       </c>
@@ -6774,6 +7362,9 @@
       <c r="I193" s="1">
         <v>0.42553191489361603</v>
       </c>
+      <c r="J193" s="8">
+        <v>0</v>
+      </c>
       <c r="K193">
         <v>94</v>
       </c>
@@ -6804,6 +7395,9 @@
       <c r="I194" s="1">
         <v>7.2072072072071301E-3</v>
       </c>
+      <c r="J194" s="8">
+        <v>0</v>
+      </c>
       <c r="K194">
         <v>555</v>
       </c>
@@ -6834,6 +7428,9 @@
       <c r="I195" s="1">
         <v>4.7619047619047603E-2</v>
       </c>
+      <c r="J195" s="8">
+        <v>0</v>
+      </c>
       <c r="K195">
         <v>147</v>
       </c>
@@ -6864,6 +7461,9 @@
       <c r="I196" s="1">
         <v>2.9850746268655901E-3</v>
       </c>
+      <c r="J196" s="8">
+        <v>0</v>
+      </c>
       <c r="K196">
         <v>335</v>
       </c>
@@ -6894,6 +7494,9 @@
       <c r="I197" s="1">
         <v>5.9974188940204301E-2</v>
       </c>
+      <c r="J197" s="8">
+        <v>0</v>
+      </c>
       <c r="K197">
         <v>246406</v>
       </c>
@@ -6924,6 +7527,9 @@
       <c r="I198" s="1">
         <v>6.7842605156037905E-2</v>
       </c>
+      <c r="J198" s="8">
+        <v>0</v>
+      </c>
       <c r="K198">
         <v>737</v>
       </c>
@@ -6954,6 +7560,9 @@
       <c r="I199" s="1">
         <v>0.102097184394699</v>
       </c>
+      <c r="J199" s="8">
+        <v>0</v>
+      </c>
       <c r="K199">
         <v>1508308</v>
       </c>
@@ -6984,6 +7593,9 @@
       <c r="I200" s="1">
         <v>0.14260121820136101</v>
       </c>
+      <c r="J200" s="8">
+        <v>0</v>
+      </c>
       <c r="K200">
         <v>2791</v>
       </c>
@@ -7014,6 +7626,9 @@
       <c r="I201" s="1">
         <v>0.90453074433656899</v>
       </c>
+      <c r="J201" s="8">
+        <v>0</v>
+      </c>
       <c r="K201">
         <v>618</v>
       </c>
@@ -7044,6 +7659,9 @@
       <c r="I202" s="1">
         <v>6.17283950617286E-3</v>
       </c>
+      <c r="J202" s="8">
+        <v>0</v>
+      </c>
       <c r="K202">
         <v>324</v>
       </c>
@@ -7074,6 +7692,9 @@
       <c r="I203" s="1">
         <v>0.20893561103810701</v>
       </c>
+      <c r="J203" s="8">
+        <v>0</v>
+      </c>
       <c r="K203">
         <v>761</v>
       </c>
@@ -7104,6 +7725,9 @@
       <c r="I204" s="1">
         <v>0.44137931034482702</v>
       </c>
+      <c r="J204" s="8">
+        <v>0</v>
+      </c>
       <c r="K204">
         <v>145</v>
       </c>
@@ -7134,6 +7758,9 @@
       <c r="I205" s="1">
         <v>0.15384615384615299</v>
       </c>
+      <c r="J205" s="8">
+        <v>0</v>
+      </c>
       <c r="K205">
         <v>65</v>
       </c>
@@ -7164,6 +7791,9 @@
       <c r="I206" s="1">
         <v>9.0206185567010197E-2</v>
       </c>
+      <c r="J206" s="8">
+        <v>0</v>
+      </c>
       <c r="K206">
         <v>388</v>
       </c>
@@ -7194,6 +7824,9 @@
       <c r="I207" s="1">
         <v>0.14147286821705399</v>
       </c>
+      <c r="J207" s="8">
+        <v>0</v>
+      </c>
       <c r="K207">
         <v>1032</v>
       </c>
@@ -7224,6 +7857,9 @@
       <c r="I208" s="1">
         <v>0.21167048054919901</v>
       </c>
+      <c r="J208" s="8">
+        <v>0</v>
+      </c>
       <c r="K208">
         <v>874</v>
       </c>
@@ -7254,6 +7890,9 @@
       <c r="I209" s="1">
         <v>8.6910994764397995E-2</v>
       </c>
+      <c r="J209" s="8">
+        <v>0</v>
+      </c>
       <c r="K209">
         <v>955</v>
       </c>
@@ -7284,6 +7923,9 @@
       <c r="I210" s="1">
         <v>6.2827225130890105E-2</v>
       </c>
+      <c r="J210" s="8">
+        <v>0</v>
+      </c>
       <c r="K210">
         <v>191</v>
       </c>
@@ -7314,6 +7956,9 @@
       <c r="I211" s="1">
         <v>0.41618497109826502</v>
       </c>
+      <c r="J211" s="8">
+        <v>0</v>
+      </c>
       <c r="K211">
         <v>519</v>
       </c>
@@ -7343,6 +7988,9 @@
       </c>
       <c r="I212" s="1">
         <v>0.79294389820705602</v>
+      </c>
+      <c r="J212" s="8">
+        <v>0</v>
       </c>
       <c r="K212">
         <v>1729</v>
@@ -7361,7 +8009,14 @@
         <f>SUMXMY2(H2:H212, I2:I212)/211</f>
         <v>1.4198143404123557E-2</v>
       </c>
-      <c r="I213" s="1"/>
+      <c r="I213" s="7">
+        <f>SUMXMY2(J2:J212, I2:I212)/211</f>
+        <v>6.9658521360707965E-2</v>
+      </c>
+      <c r="J213" s="9">
+        <f>I213/H213</f>
+        <v>4.9061711364654261</v>
+      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H214" s="1"/>
@@ -7505,7 +8160,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:I56 H214:I1048576 I213">
+  <conditionalFormatting sqref="H1:I56 H214:I1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7551,7 +8206,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:I56 H214:I1048576 I213</xm:sqref>
+          <xm:sqref>H1:I56 H214:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F5884B4-E6D1-4F98-AD9B-1D6300FDC14A}">
